--- a/AAII_Financials/Quarterly/ARKAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARKAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="92">
   <si>
     <t>ARKAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,38 +665,42 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
+      <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44651</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
@@ -707,25 +711,40 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>2718100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2699800</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3200500</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6537900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3109000</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -736,25 +755,40 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>2177500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2292700</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2537200</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4829900</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2299200</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -765,25 +799,40 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>540600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>407100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>663400</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1708000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>809800</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -794,8 +843,23 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -807,25 +871,30 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>76500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>71100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>143200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>71100</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -836,8 +905,23 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,25 +949,40 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>76500</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G14" s="3">
+        <v>46300</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4300</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -894,37 +993,67 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,25 +1062,30 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>2507000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2680400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2854900</v>
+      </c>
+      <c r="G17" s="3">
+        <v>5517000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2641600</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -962,25 +1096,40 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>211100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>345700</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1020900</v>
+      </c>
+      <c r="H18" s="3">
+        <v>467400</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -991,8 +1140,23 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,25 +1168,30 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-9700</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1033,16 +1202,31 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>746300</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1062,54 +1246,84 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>187400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>324100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1004700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>457700</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1120,25 +1334,40 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="F24" s="3">
+        <v>81800</v>
+      </c>
+      <c r="G24" s="3">
+        <v>216500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>102300</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1149,8 +1378,23 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,25 +1422,40 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>143200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>242300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>788300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>355400</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1207,25 +1466,40 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>142200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>241200</v>
+      </c>
+      <c r="G27" s="3">
+        <v>780800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>354300</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1236,8 +1510,23 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,37 +1554,67 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1642,23 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,25 +1686,40 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>34500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>21500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>16200</v>
+      </c>
+      <c r="H32" s="3">
+        <v>9700</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1381,25 +1730,40 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>142200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>241200</v>
+      </c>
+      <c r="G33" s="3">
+        <v>780800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>354300</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1410,8 +1774,23 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,25 +1818,40 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>142200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>241200</v>
+      </c>
+      <c r="G35" s="3">
+        <v>780800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>354300</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1468,30 +1862,45 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
+      <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="H38" s="2">
+        <v>44651</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
@@ -1502,8 +1911,23 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1939,13 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,269 +1957,409 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +2387,23 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,37 +2431,67 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2519,67 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2591,13 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,124 +2609,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2105,37 +2819,67 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2907,23 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2951,23 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2995,67 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +3067,13 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +3101,23 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,37 +3145,67 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>3</v>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +3233,67 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +3321,23 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +3365,23 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +3409,67 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,30 +3497,45 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
+      <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="H80" s="2">
+        <v>44651</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
@@ -2587,25 +3546,40 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>142200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>241200</v>
+      </c>
+      <c r="G81" s="3">
+        <v>780800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>354300</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2616,8 +3590,23 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,37 +3618,57 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +3696,23 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +3740,23 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +3784,23 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +3828,23 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,37 +3872,67 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,37 +3944,57 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +4022,23 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,37 +4066,67 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,8 +4138,13 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3003,8 +4172,23 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +4216,23 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +4260,23 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,91 +4304,151 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARKAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARKAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="92">
   <si>
     <t>ARKAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -726,28 +727,31 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2718100</v>
+        <v>2647400</v>
       </c>
       <c r="E8" s="3">
-        <v>2699800</v>
+        <v>2736300</v>
       </c>
       <c r="F8" s="3">
-        <v>3200500</v>
+        <v>2717800</v>
       </c>
       <c r="G8" s="3">
-        <v>6537900</v>
+        <v>3221900</v>
       </c>
       <c r="H8" s="3">
-        <v>3109000</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>6581600</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3129800</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -770,28 +774,31 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2177500</v>
+        <v>2059800</v>
       </c>
       <c r="E9" s="3">
-        <v>2292700</v>
+        <v>2192100</v>
       </c>
       <c r="F9" s="3">
-        <v>2537200</v>
+        <v>2308000</v>
       </c>
       <c r="G9" s="3">
-        <v>4829900</v>
+        <v>2554100</v>
       </c>
       <c r="H9" s="3">
-        <v>2299200</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>4862200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2314600</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -814,28 +821,31 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>540600</v>
+        <v>587600</v>
       </c>
       <c r="E10" s="3">
-        <v>407100</v>
+        <v>544200</v>
       </c>
       <c r="F10" s="3">
-        <v>663400</v>
+        <v>409800</v>
       </c>
       <c r="G10" s="3">
-        <v>1708000</v>
+        <v>667800</v>
       </c>
       <c r="H10" s="3">
-        <v>809800</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>1719400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>815200</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -858,8 +868,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -876,28 +889,29 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>75400</v>
+        <v>71600</v>
       </c>
       <c r="E12" s="3">
-        <v>76500</v>
+        <v>75900</v>
       </c>
       <c r="F12" s="3">
-        <v>71100</v>
+        <v>77000</v>
       </c>
       <c r="G12" s="3">
-        <v>143200</v>
+        <v>71600</v>
       </c>
       <c r="H12" s="3">
-        <v>71100</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+        <v>144200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>71600</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -920,8 +934,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -964,29 +981,32 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="E14" s="3">
-        <v>76500</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>7500</v>
+        <v>77000</v>
       </c>
       <c r="G14" s="3">
-        <v>46300</v>
+        <v>7600</v>
       </c>
       <c r="H14" s="3">
+        <v>46600</v>
+      </c>
+      <c r="I14" s="3">
         <v>4300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1008,8 +1028,11 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1034,8 +1057,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
@@ -1052,8 +1075,11 @@
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1067,28 +1093,29 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2507000</v>
+        <v>2407800</v>
       </c>
       <c r="E17" s="3">
-        <v>2680400</v>
+        <v>2523800</v>
       </c>
       <c r="F17" s="3">
-        <v>2854900</v>
+        <v>2698300</v>
       </c>
       <c r="G17" s="3">
-        <v>5517000</v>
+        <v>2873900</v>
       </c>
       <c r="H17" s="3">
-        <v>2641600</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>5553800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2659300</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1111,28 +1138,31 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>211100</v>
+        <v>239600</v>
       </c>
       <c r="E18" s="3">
-        <v>19400</v>
+        <v>212500</v>
       </c>
       <c r="F18" s="3">
-        <v>345700</v>
+        <v>19500</v>
       </c>
       <c r="G18" s="3">
-        <v>1020900</v>
+        <v>348000</v>
       </c>
       <c r="H18" s="3">
-        <v>467400</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>1027700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>470500</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1155,8 +1185,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1173,28 +1206,29 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-23700</v>
+        <v>-19500</v>
       </c>
       <c r="E20" s="3">
-        <v>-34500</v>
+        <v>-23900</v>
       </c>
       <c r="F20" s="3">
-        <v>-21500</v>
+        <v>-34700</v>
       </c>
       <c r="G20" s="3">
-        <v>-16200</v>
+        <v>-21700</v>
       </c>
       <c r="H20" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+        <v>-16300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-9800</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1217,19 +1251,22 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
-        <v>746300</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
+        <v>751300</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1261,8 +1298,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1287,8 +1327,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1305,28 +1345,31 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>187400</v>
+        <v>220100</v>
       </c>
       <c r="E23" s="3">
-        <v>-15100</v>
+        <v>188600</v>
       </c>
       <c r="F23" s="3">
-        <v>324100</v>
+        <v>-15200</v>
       </c>
       <c r="G23" s="3">
-        <v>1004700</v>
+        <v>326300</v>
       </c>
       <c r="H23" s="3">
-        <v>457700</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>1011500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>460700</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1349,28 +1392,31 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>44200</v>
+        <v>55300</v>
       </c>
       <c r="E24" s="3">
-        <v>-24800</v>
+        <v>44400</v>
       </c>
       <c r="F24" s="3">
-        <v>81800</v>
+        <v>-24900</v>
       </c>
       <c r="G24" s="3">
-        <v>216500</v>
+        <v>82400</v>
       </c>
       <c r="H24" s="3">
-        <v>102300</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+        <v>217900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>103000</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1393,8 +1439,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1437,28 +1486,31 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>143200</v>
+        <v>164800</v>
       </c>
       <c r="E26" s="3">
-        <v>9700</v>
+        <v>144200</v>
       </c>
       <c r="F26" s="3">
-        <v>242300</v>
+        <v>9800</v>
       </c>
       <c r="G26" s="3">
-        <v>788300</v>
+        <v>243900</v>
       </c>
       <c r="H26" s="3">
-        <v>355400</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>793600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>357800</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1481,28 +1533,31 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>142200</v>
+        <v>159400</v>
       </c>
       <c r="E27" s="3">
+        <v>143100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5400</v>
       </c>
-      <c r="F27" s="3">
-        <v>241200</v>
-      </c>
       <c r="G27" s="3">
-        <v>780800</v>
+        <v>242800</v>
       </c>
       <c r="H27" s="3">
-        <v>354300</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>786000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>356700</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1525,8 +1580,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1569,8 +1627,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1595,8 +1656,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
@@ -1613,8 +1674,11 @@
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1657,8 +1721,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1701,28 +1768,31 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>23700</v>
+        <v>19500</v>
       </c>
       <c r="E32" s="3">
-        <v>34500</v>
+        <v>23900</v>
       </c>
       <c r="F32" s="3">
-        <v>21500</v>
+        <v>34700</v>
       </c>
       <c r="G32" s="3">
-        <v>16200</v>
+        <v>21700</v>
       </c>
       <c r="H32" s="3">
-        <v>9700</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+        <v>16300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>9800</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1745,28 +1815,31 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>142200</v>
+        <v>159400</v>
       </c>
       <c r="E33" s="3">
+        <v>143100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5400</v>
       </c>
-      <c r="F33" s="3">
-        <v>241200</v>
-      </c>
       <c r="G33" s="3">
-        <v>780800</v>
+        <v>242800</v>
       </c>
       <c r="H33" s="3">
-        <v>354300</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>786000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>356700</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1789,8 +1862,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1833,28 +1909,31 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>142200</v>
+        <v>159400</v>
       </c>
       <c r="E35" s="3">
+        <v>143100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5400</v>
       </c>
-      <c r="F35" s="3">
-        <v>241200</v>
-      </c>
       <c r="G35" s="3">
-        <v>780800</v>
+        <v>242800</v>
       </c>
       <c r="H35" s="3">
-        <v>354300</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>786000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>356700</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1877,34 +1956,37 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1926,8 +2008,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1944,8 +2029,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1962,34 +2048,35 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
+        <v>1806100</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
@@ -2006,34 +2093,37 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
+        <v>46600</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
@@ -2050,34 +2140,37 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
+        <v>1940500</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
@@ -2094,34 +2187,37 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
+        <v>1495000</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
@@ -2138,8 +2234,11 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2164,8 +2263,8 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -2182,34 +2281,37 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
+        <v>5288200</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
@@ -2226,34 +2328,37 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+        <v>75900</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
@@ -2270,34 +2375,37 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+        <v>3646900</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
@@ -2314,34 +2422,37 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+        <v>5187400</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2358,8 +2469,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2402,8 +2516,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2446,34 +2563,37 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+        <v>454200</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2490,8 +2610,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2534,34 +2657,37 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
+        <v>14652700</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
@@ -2578,8 +2704,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2596,8 +2725,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2614,34 +2744,35 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+        <v>1081900</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2658,34 +2789,37 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+        <v>715500</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2702,34 +2836,37 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+        <v>611400</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
@@ -2746,34 +2883,37 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
+        <v>2408900</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
@@ -2790,13 +2930,16 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>3199200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2834,34 +2977,37 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+        <v>1270600</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -2878,8 +3024,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2922,8 +3071,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2966,8 +3118,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3010,34 +3165,37 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
+        <v>6920900</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K66" s="3">
+        <v>0</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
@@ -3054,8 +3212,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3072,8 +3233,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3116,8 +3278,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3160,8 +3325,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3186,8 +3354,8 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3" t="s">
-        <v>3</v>
+      <c r="K70" s="3">
+        <v>0</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>3</v>
@@ -3204,8 +3372,11 @@
       <c r="P70" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3248,34 +3419,37 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+        <v>4821000</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
@@ -3292,8 +3466,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3336,8 +3513,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3380,8 +3560,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3424,34 +3607,37 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+        <v>7731800</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
@@ -3468,8 +3654,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3512,34 +3701,37 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3561,28 +3753,31 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>142200</v>
+        <v>159400</v>
       </c>
       <c r="E81" s="3">
+        <v>143100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5400</v>
       </c>
-      <c r="F81" s="3">
-        <v>241200</v>
-      </c>
       <c r="G81" s="3">
-        <v>780800</v>
+        <v>242800</v>
       </c>
       <c r="H81" s="3">
-        <v>354300</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>786000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>356700</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3605,8 +3800,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3623,8 +3821,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3649,8 +3848,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3667,8 +3866,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3711,8 +3913,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3755,8 +3960,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3799,8 +4007,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3843,8 +4054,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3887,8 +4101,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3913,8 +4130,8 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -3931,8 +4148,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3949,8 +4169,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3975,8 +4196,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3993,8 +4214,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4037,8 +4261,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4081,8 +4308,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4107,8 +4337,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -4125,8 +4355,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4143,8 +4376,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4187,8 +4421,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4231,8 +4468,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4275,8 +4515,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4319,8 +4562,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4345,8 +4591,8 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -4363,8 +4609,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4389,8 +4638,8 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -4407,8 +4656,11 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4433,8 +4685,8 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
@@ -4449,6 +4701,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARKAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARKAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="92">
   <si>
     <t>ARKAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -730,31 +731,34 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2647400</v>
+        <v>2523700</v>
       </c>
       <c r="E8" s="3">
-        <v>2736300</v>
+        <v>5388100</v>
       </c>
       <c r="F8" s="3">
-        <v>2717800</v>
+        <v>2738500</v>
       </c>
       <c r="G8" s="3">
-        <v>3221900</v>
+        <v>2720100</v>
       </c>
       <c r="H8" s="3">
-        <v>6581600</v>
+        <v>3224600</v>
       </c>
       <c r="I8" s="3">
-        <v>3129800</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>6587000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3132400</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -777,31 +781,34 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2059800</v>
+        <v>1991000</v>
       </c>
       <c r="E9" s="3">
-        <v>2192100</v>
+        <v>4255400</v>
       </c>
       <c r="F9" s="3">
-        <v>2308000</v>
+        <v>2193900</v>
       </c>
       <c r="G9" s="3">
-        <v>2554100</v>
+        <v>2310000</v>
       </c>
       <c r="H9" s="3">
-        <v>4862200</v>
+        <v>2556300</v>
       </c>
       <c r="I9" s="3">
-        <v>2314600</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>4866200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2316500</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -824,31 +831,34 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>587600</v>
+        <v>532700</v>
       </c>
       <c r="E10" s="3">
-        <v>544200</v>
+        <v>1132700</v>
       </c>
       <c r="F10" s="3">
-        <v>409800</v>
+        <v>544700</v>
       </c>
       <c r="G10" s="3">
-        <v>667800</v>
+        <v>410100</v>
       </c>
       <c r="H10" s="3">
-        <v>1719400</v>
+        <v>668400</v>
       </c>
       <c r="I10" s="3">
-        <v>815200</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>1720800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>815900</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -871,8 +881,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -890,32 +903,33 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>147600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>76000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>77000</v>
+      </c>
+      <c r="H12" s="3">
         <v>71600</v>
       </c>
-      <c r="E12" s="3">
-        <v>75900</v>
-      </c>
-      <c r="F12" s="3">
-        <v>77000</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
+        <v>144300</v>
+      </c>
+      <c r="J12" s="3">
         <v>71600</v>
       </c>
-      <c r="H12" s="3">
-        <v>144200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>71600</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -937,8 +951,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -984,32 +1001,35 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6500</v>
+        <v>34700</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>42300</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>77000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7600</v>
       </c>
-      <c r="H14" s="3">
-        <v>46600</v>
-      </c>
       <c r="I14" s="3">
+        <v>46700</v>
+      </c>
+      <c r="J14" s="3">
         <v>4300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1031,8 +1051,11 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1060,8 +1083,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
@@ -1078,8 +1101,11 @@
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1094,31 +1120,32 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2407800</v>
+        <v>2326200</v>
       </c>
       <c r="E17" s="3">
-        <v>2523800</v>
+        <v>4935700</v>
       </c>
       <c r="F17" s="3">
-        <v>2698300</v>
+        <v>2525900</v>
       </c>
       <c r="G17" s="3">
-        <v>2873900</v>
+        <v>2700600</v>
       </c>
       <c r="H17" s="3">
-        <v>5553800</v>
+        <v>2876300</v>
       </c>
       <c r="I17" s="3">
-        <v>2659300</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>5558500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2661500</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1141,31 +1168,34 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>239600</v>
+        <v>197500</v>
       </c>
       <c r="E18" s="3">
-        <v>212500</v>
+        <v>452400</v>
       </c>
       <c r="F18" s="3">
+        <v>212700</v>
+      </c>
+      <c r="G18" s="3">
         <v>19500</v>
       </c>
-      <c r="G18" s="3">
-        <v>348000</v>
-      </c>
       <c r="H18" s="3">
-        <v>1027700</v>
+        <v>348300</v>
       </c>
       <c r="I18" s="3">
-        <v>470500</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>1028600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>470900</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1188,8 +1218,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1207,32 +1240,33 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-19500</v>
+        <v>-11900</v>
       </c>
       <c r="E20" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-23900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-34700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-21700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-16300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-9800</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1254,22 +1288,25 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
-        <v>751300</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>378700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>771400</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
+        <v>751900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1301,8 +1338,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1330,8 +1370,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1348,31 +1388,34 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>220100</v>
+        <v>185500</v>
       </c>
       <c r="E23" s="3">
-        <v>188600</v>
+        <v>409000</v>
       </c>
       <c r="F23" s="3">
+        <v>188800</v>
+      </c>
+      <c r="G23" s="3">
         <v>-15200</v>
       </c>
-      <c r="G23" s="3">
-        <v>326300</v>
-      </c>
       <c r="H23" s="3">
-        <v>1011500</v>
+        <v>326600</v>
       </c>
       <c r="I23" s="3">
-        <v>460700</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>1012300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>461100</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1395,31 +1438,34 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>55300</v>
+        <v>58600</v>
       </c>
       <c r="E24" s="3">
-        <v>44400</v>
+        <v>99800</v>
       </c>
       <c r="F24" s="3">
-        <v>-24900</v>
+        <v>44500</v>
       </c>
       <c r="G24" s="3">
-        <v>82400</v>
+        <v>-25000</v>
       </c>
       <c r="H24" s="3">
-        <v>217900</v>
+        <v>82500</v>
       </c>
       <c r="I24" s="3">
-        <v>103000</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+        <v>218100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>103100</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1442,8 +1488,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1489,31 +1538,34 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>164800</v>
+        <v>126900</v>
       </c>
       <c r="E26" s="3">
-        <v>144200</v>
+        <v>309200</v>
       </c>
       <c r="F26" s="3">
+        <v>144300</v>
+      </c>
+      <c r="G26" s="3">
         <v>9800</v>
       </c>
-      <c r="G26" s="3">
-        <v>243900</v>
-      </c>
       <c r="H26" s="3">
-        <v>793600</v>
+        <v>244100</v>
       </c>
       <c r="I26" s="3">
-        <v>357800</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>794200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>358100</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1536,31 +1588,34 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>159400</v>
+        <v>123700</v>
       </c>
       <c r="E27" s="3">
-        <v>143100</v>
+        <v>302700</v>
       </c>
       <c r="F27" s="3">
+        <v>143200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-5400</v>
       </c>
-      <c r="G27" s="3">
-        <v>242800</v>
-      </c>
       <c r="H27" s="3">
-        <v>786000</v>
+        <v>243000</v>
       </c>
       <c r="I27" s="3">
-        <v>356700</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>786600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>357000</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1583,8 +1638,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1630,8 +1688,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1659,8 +1720,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
@@ -1677,8 +1738,11 @@
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1724,8 +1788,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1771,32 +1838,35 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>19500</v>
+        <v>11900</v>
       </c>
       <c r="E32" s="3">
+        <v>43400</v>
+      </c>
+      <c r="F32" s="3">
         <v>23900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>34700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>21700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>16300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>9800</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1818,31 +1888,34 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>159400</v>
+        <v>123700</v>
       </c>
       <c r="E33" s="3">
-        <v>143100</v>
+        <v>302700</v>
       </c>
       <c r="F33" s="3">
+        <v>143200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-5400</v>
       </c>
-      <c r="G33" s="3">
-        <v>242800</v>
-      </c>
       <c r="H33" s="3">
-        <v>786000</v>
+        <v>243000</v>
       </c>
       <c r="I33" s="3">
-        <v>356700</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>786600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>357000</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1865,8 +1938,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1912,31 +1988,34 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>159400</v>
+        <v>123700</v>
       </c>
       <c r="E35" s="3">
-        <v>143100</v>
+        <v>302700</v>
       </c>
       <c r="F35" s="3">
+        <v>143200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-5400</v>
       </c>
-      <c r="G35" s="3">
-        <v>242800</v>
-      </c>
       <c r="H35" s="3">
-        <v>786000</v>
+        <v>243000</v>
       </c>
       <c r="I35" s="3">
-        <v>356700</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>786600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>357000</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1959,37 +2038,40 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2011,8 +2093,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2030,8 +2115,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2049,16 +2135,17 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1806100</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
+        <v>2061500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1807600</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -2075,11 +2162,11 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -2096,16 +2183,19 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>46600</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
+        <v>14100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>46700</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -2122,11 +2212,11 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
@@ -2143,16 +2233,19 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1940500</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
+        <v>1841200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1942200</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -2169,11 +2262,11 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
@@ -2190,16 +2283,19 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1495000</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
+        <v>1461500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1496200</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -2216,11 +2312,11 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
@@ -2237,8 +2333,11 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2266,8 +2365,8 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2284,16 +2383,19 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5288200</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
+        <v>5378300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5292600</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -2310,11 +2412,11 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
@@ -2331,16 +2433,19 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>75900</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+        <v>73800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>76000</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -2357,11 +2462,11 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -2378,16 +2483,19 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3646900</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
+        <v>3725900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3649900</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -2404,11 +2512,11 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2425,16 +2533,19 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5187400</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+        <v>5216700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5191700</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -2451,11 +2562,11 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2472,8 +2583,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2519,8 +2633,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2566,16 +2683,19 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>454200</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+        <v>434000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>454600</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -2592,11 +2712,11 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2613,8 +2733,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2660,16 +2783,19 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14652700</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
+        <v>14828700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>14664900</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -2686,11 +2812,11 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
@@ -2707,8 +2833,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2726,8 +2855,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2745,16 +2875,17 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1081900</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
+        <v>1026400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1082800</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -2771,11 +2902,11 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2792,16 +2923,19 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>715500</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+        <v>720400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>716100</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2818,11 +2952,11 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -2839,16 +2973,19 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>611400</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
+        <v>644500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>611900</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2865,11 +3002,11 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -2886,16 +3023,19 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2408900</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
+        <v>2391300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2410900</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2912,11 +3052,11 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
@@ -2933,16 +3073,19 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3199200</v>
+        <v>3206200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>3201800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2980,16 +3123,19 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1270600</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+        <v>1211900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1271600</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -3006,11 +3152,11 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -3027,8 +3173,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3074,8 +3223,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3121,8 +3273,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3168,16 +3323,19 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6920900</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
+        <v>6853900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6926600</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -3194,11 +3352,11 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
@@ -3215,8 +3373,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3234,8 +3395,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3281,8 +3443,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3328,8 +3493,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3357,8 +3525,8 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3" t="s">
-        <v>3</v>
+      <c r="L70" s="3">
+        <v>0</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>3</v>
@@ -3375,8 +3543,11 @@
       <c r="Q70" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3422,16 +3593,19 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4821000</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
+        <v>4953000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4825000</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -3448,11 +3622,11 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3">
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -3469,8 +3643,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3516,8 +3693,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3563,8 +3743,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3610,16 +3793,19 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7731800</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
+        <v>7974800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7738200</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -3636,11 +3822,11 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
@@ -3657,8 +3843,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3704,37 +3893,40 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3756,31 +3948,34 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>159400</v>
+        <v>123700</v>
       </c>
       <c r="E81" s="3">
-        <v>143100</v>
+        <v>302700</v>
       </c>
       <c r="F81" s="3">
+        <v>143200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-5400</v>
       </c>
-      <c r="G81" s="3">
-        <v>242800</v>
-      </c>
       <c r="H81" s="3">
-        <v>786000</v>
+        <v>243000</v>
       </c>
       <c r="I81" s="3">
-        <v>356700</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>786600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>357000</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3803,8 +3998,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3822,37 +4020,38 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>193100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>362400</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3869,8 +4068,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3916,8 +4118,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3963,8 +4168,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4010,8 +4218,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4057,8 +4268,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4104,37 +4318,40 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>426400</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>452400</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -4151,8 +4368,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4170,13 +4390,14 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-149000</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4199,8 +4420,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -4217,8 +4438,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4264,8 +4488,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4311,37 +4538,40 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-135600</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-419900</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -4358,8 +4588,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4377,8 +4610,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4386,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-274500</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -4424,8 +4658,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4471,8 +4708,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4518,8 +4758,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4565,37 +4808,40 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-41200</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>40100</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -4612,37 +4858,40 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>7600</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
@@ -4659,37 +4908,40 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>253900</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>80300</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
@@ -4704,6 +4956,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
